--- a/ArticleManage/main_working_folder/output_folders/Data 114 Activated Carbons From Winemaking/Data114_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 114 Activated Carbons From Winemaking/Data114_all_graphs_excel.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="BAG" sheetId="1" r:id="rId1"/>
-    <sheet name="CS" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 BAG  0-1-0-1000 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 CS  0-1-0-1000 " sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -101,7 +101,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BAG</a:t>
+              <a:t>Izoterma adsorpcji probki BAG z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -160,12 +160,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>BAG!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 BAG  0-1-0-1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>BAG!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 BAG  0-1-0-1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -178,6 +178,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -247,6 +249,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -411,7 +415,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CS</a:t>
+              <a:t>Izoterma adsorpcji probki CS z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -470,12 +474,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CS!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 CS  0-1-0-1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CS!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 CS  0-1-0-1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -488,6 +492,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -557,6 +563,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 114 Activated Carbons From Winemaking/Data114_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 114 Activated Carbons From Winemaking/Data114_all_graphs_excel.xlsx
@@ -2185,7 +2185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2206,26 +2206,26 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0009</v>
+        <v>0.0004</v>
       </c>
       <c r="B3" s="0">
-        <v>276.8242</v>
+        <v>278.1112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0003</v>
+        <v>-0.0009</v>
       </c>
       <c r="B4" s="0">
-        <v>211.1319</v>
+        <v>216.9234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="B5" s="0">
-        <v>170.4552</v>
+        <v>171.0987</v>
       </c>
     </row>
     <row r="6">
@@ -2233,23 +2233,23 @@
         <v>-0.001</v>
       </c>
       <c r="B6" s="0">
-        <v>127.4582</v>
+        <v>125.5277</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0008</v>
+        <v>-0.0002</v>
       </c>
       <c r="B7" s="0">
-        <v>69.2882</v>
+        <v>64.1402</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0013</v>
+        <v>-0.0003</v>
       </c>
       <c r="B8" s="0">
-        <v>19.9901</v>
+        <v>17.4161</v>
       </c>
     </row>
     <row r="9">
@@ -2326,122 +2326,122 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.9699</v>
+        <v>0.25</v>
       </c>
       <c r="B18" s="0">
-        <v>628.6818</v>
+        <v>517.3745</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.9951</v>
+        <v>0.1353</v>
       </c>
       <c r="B19" s="0">
-        <v>649.6852</v>
+        <v>487.7735</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.25</v>
+        <v>0.1017</v>
       </c>
       <c r="B20" s="0">
-        <v>517.3745</v>
+        <v>476.1905</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1353</v>
+        <v>0.0823</v>
       </c>
       <c r="B21" s="0">
-        <v>487.7735</v>
+        <v>465.8945</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1017</v>
+        <v>0.0584</v>
       </c>
       <c r="B22" s="0">
-        <v>476.1905</v>
+        <v>450.4505</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0823</v>
+        <v>0.0292</v>
       </c>
       <c r="B23" s="0">
-        <v>465.8945</v>
+        <v>422.1364</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0584</v>
+        <v>0.0119</v>
       </c>
       <c r="B24" s="0">
-        <v>450.4505</v>
+        <v>388.6744</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0292</v>
+        <v>0.0065</v>
       </c>
       <c r="B25" s="0">
-        <v>422.1364</v>
+        <v>365.5084</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0119</v>
+        <v>0.0022</v>
       </c>
       <c r="B26" s="0">
-        <v>388.6744</v>
+        <v>348.7773</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0065</v>
+        <v>0.0022</v>
       </c>
       <c r="B27" s="0">
-        <v>365.5084</v>
+        <v>335.9073</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0022</v>
+        <v>0.0011</v>
       </c>
       <c r="B28" s="0">
-        <v>348.7773</v>
+        <v>323.0373</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0022</v>
+        <v>0.0011</v>
       </c>
       <c r="B29" s="0">
-        <v>335.9073</v>
+        <v>308.8803</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0011</v>
+        <v>0</v>
       </c>
       <c r="B30" s="0">
-        <v>323.0373</v>
+        <v>293.4363</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0011</v>
+        <v>0</v>
       </c>
       <c r="B31" s="0">
-        <v>308.8803</v>
+        <v>266.4093</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="B32" s="0">
-        <v>293.4363</v>
+        <v>249.6782</v>
       </c>
     </row>
     <row r="33">
@@ -2449,15 +2449,15 @@
         <v>0</v>
       </c>
       <c r="B33" s="0">
-        <v>266.4093</v>
+        <v>234.2342</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0011</v>
+        <v>0</v>
       </c>
       <c r="B34" s="0">
-        <v>249.6782</v>
+        <v>187.9022</v>
       </c>
     </row>
     <row r="35">
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="0">
-        <v>234.2342</v>
+        <v>155.7272</v>
       </c>
     </row>
     <row r="36">
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="0">
-        <v>187.9022</v>
+        <v>142.8571</v>
       </c>
     </row>
     <row r="37">
@@ -2481,15 +2481,15 @@
         <v>0</v>
       </c>
       <c r="B37" s="0">
-        <v>155.7272</v>
+        <v>110.6821</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="B38" s="0">
-        <v>142.8571</v>
+        <v>93.9511</v>
       </c>
     </row>
     <row r="39">
@@ -2497,15 +2497,15 @@
         <v>0</v>
       </c>
       <c r="B39" s="0">
-        <v>110.6821</v>
+        <v>79.7941</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.0011</v>
+        <v>0</v>
       </c>
       <c r="B40" s="0">
-        <v>93.9511</v>
+        <v>46.332</v>
       </c>
     </row>
     <row r="41">
@@ -2513,146 +2513,162 @@
         <v>0</v>
       </c>
       <c r="B41" s="0">
-        <v>79.7941</v>
+        <v>32.175</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0</v>
+        <v>0.4502</v>
       </c>
       <c r="B42" s="0">
-        <v>46.332</v>
+        <v>541.8275</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0</v>
+        <v>0.7359</v>
       </c>
       <c r="B43" s="0">
-        <v>32.175</v>
+        <v>558.5586</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.4502</v>
+        <v>0.7673</v>
       </c>
       <c r="B44" s="0">
-        <v>541.8275</v>
+        <v>562.4196</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.7359</v>
+        <v>0.8149</v>
       </c>
       <c r="B45" s="0">
-        <v>558.5586</v>
+        <v>568.8546</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.7673</v>
+        <v>0.7955</v>
       </c>
       <c r="B46" s="0">
-        <v>562.4196</v>
+        <v>564.9936</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.8149</v>
+        <v>0.8344</v>
       </c>
       <c r="B47" s="0">
-        <v>568.8546</v>
+        <v>570.1416</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.7955</v>
+        <v>0.8539</v>
       </c>
       <c r="B48" s="0">
-        <v>564.9936</v>
+        <v>572.7156</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.8344</v>
+        <v>0.8712</v>
       </c>
       <c r="B49" s="0">
-        <v>570.1416</v>
+        <v>576.5766</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.8539</v>
+        <v>0.8864</v>
       </c>
       <c r="B50" s="0">
-        <v>572.7156</v>
+        <v>579.1506</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.8712</v>
+        <v>0.9004</v>
       </c>
       <c r="B51" s="0">
-        <v>576.5766</v>
+        <v>585.5856</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.8864</v>
+        <v>0.9134</v>
       </c>
       <c r="B52" s="0">
-        <v>579.1506</v>
+        <v>588.1596</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.9004</v>
+        <v>0.9232</v>
       </c>
       <c r="B53" s="0">
-        <v>585.5856</v>
+        <v>594.5946</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.9134</v>
+        <v>0.9535</v>
       </c>
       <c r="B54" s="0">
-        <v>588.1596</v>
+        <v>612.6126</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.9232</v>
+        <v>0.9383</v>
       </c>
       <c r="B55" s="0">
-        <v>594.5946</v>
+        <v>603.6036</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.9535</v>
+        <v>0.9643</v>
       </c>
       <c r="B56" s="0">
-        <v>612.6126</v>
+        <v>626.7696</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.9383</v>
+        <v>0.9751</v>
       </c>
       <c r="B57" s="0">
-        <v>603.6036</v>
+        <v>635.7786</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0.9805</v>
+        <v>0.9838</v>
       </c>
       <c r="B58" s="0">
-        <v>640.9266</v>
-      </c>
-    </row>
-    <row r="59"/>
+        <v>646.0746</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>0.9903</v>
+      </c>
+      <c r="B59" s="0">
+        <v>655.0837</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>0</v>
+      </c>
+      <c r="B60" s="0">
+        <v>203.3462</v>
+      </c>
+    </row>
+    <row r="61"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -2682,34 +2698,34 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0019</v>
+        <v>0.0025</v>
       </c>
       <c r="B3" s="0">
-        <v>414.3923</v>
+        <v>412.4618</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0084</v>
+        <v>0.0079</v>
       </c>
       <c r="B4" s="0">
-        <v>458.5545</v>
+        <v>460.485</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0183</v>
+        <v>0.0178</v>
       </c>
       <c r="B5" s="0">
-        <v>506.4203</v>
+        <v>503.8463</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0312</v>
+        <v>0.0295</v>
       </c>
       <c r="B6" s="0">
-        <v>539.4622</v>
+        <v>538.1752</v>
       </c>
     </row>
     <row r="7">
@@ -2717,7 +2733,7 @@
         <v>0.0588</v>
       </c>
       <c r="B7" s="0">
-        <v>597.9264</v>
+        <v>599.8569</v>
       </c>
     </row>
     <row r="8">
@@ -2725,7 +2741,7 @@
         <v>0.1405</v>
       </c>
       <c r="B8" s="0">
-        <v>713.4693</v>
+        <v>711.5388</v>
       </c>
     </row>
     <row r="9">
@@ -2733,12 +2749,12 @@
         <v>0.2019</v>
       </c>
       <c r="B9" s="0">
-        <v>763.6903</v>
+        <v>764.9773</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2521</v>
+        <v>0.2532</v>
       </c>
       <c r="B10" s="0">
         <v>799.0598</v>
@@ -2746,7 +2762,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2957</v>
+        <v>0.2952</v>
       </c>
       <c r="B11" s="0">
         <v>822.5008</v>
@@ -2757,44 +2773,44 @@
         <v>0.3471</v>
       </c>
       <c r="B12" s="0">
-        <v>842.0351</v>
+        <v>843.9656</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3943</v>
+        <v>0.3948</v>
       </c>
       <c r="B13" s="0">
-        <v>859.0756</v>
+        <v>860.3626</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4475</v>
+        <v>0.4453</v>
       </c>
       <c r="B14" s="0">
-        <v>874.0002</v>
+        <v>872.7132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.5002</v>
+        <v>0.4991</v>
       </c>
       <c r="B15" s="0">
-        <v>882.3504</v>
+        <v>881.7069</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.5467</v>
+        <v>0.544</v>
       </c>
       <c r="B16" s="0">
-        <v>891.3556</v>
+        <v>890.0686</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.6003</v>
+        <v>0.5981</v>
       </c>
       <c r="B17" s="0">
         <v>897.3128</v>
@@ -2802,10 +2818,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.6459</v>
+        <v>0.6443</v>
       </c>
       <c r="B18" s="0">
-        <v>903.6227</v>
+        <v>902.9792</v>
       </c>
     </row>
     <row r="19">
@@ -2813,31 +2829,31 @@
         <v>0.7004</v>
       </c>
       <c r="B19" s="0">
-        <v>906.1794</v>
+        <v>908.7534</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.7396</v>
+        <v>0.7385</v>
       </c>
       <c r="B20" s="0">
-        <v>912.1367</v>
+        <v>912.7802</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.0812</v>
+        <v>0.0795</v>
       </c>
       <c r="B21" s="0">
-        <v>634.4916</v>
+        <v>633.8481</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1017</v>
+        <v>0.1006</v>
       </c>
       <c r="B22" s="0">
-        <v>661.5187</v>
+        <v>662.1622</v>
       </c>
     </row>
     <row r="23">
@@ -2845,20 +2861,20 @@
         <v>0.0097</v>
       </c>
       <c r="B23" s="0">
-        <v>472.3295</v>
+        <v>474.9035</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0043</v>
+        <v>0.0038</v>
       </c>
       <c r="B24" s="0">
-        <v>436.2934</v>
+        <v>435.6499</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0011</v>
+        <v>0.0016</v>
       </c>
       <c r="B25" s="0">
         <v>395.1094</v>
@@ -2866,7 +2882,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="B26" s="0">
         <v>380.9524</v>
@@ -2874,7 +2890,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0011</v>
+        <v>-0</v>
       </c>
       <c r="B27" s="0">
         <v>365.5084</v>
@@ -2885,7 +2901,7 @@
         <v>0.7695</v>
       </c>
       <c r="B28" s="0">
-        <v>917.6319</v>
+        <v>916.9884</v>
       </c>
     </row>
     <row r="29">
@@ -2893,7 +2909,7 @@
         <v>0.7944</v>
       </c>
       <c r="B29" s="0">
-        <v>920.2059</v>
+        <v>919.5624</v>
       </c>
     </row>
     <row r="30">
@@ -2901,7 +2917,7 @@
         <v>0.8139</v>
       </c>
       <c r="B30" s="0">
-        <v>922.7799</v>
+        <v>922.1364</v>
       </c>
     </row>
     <row r="31">
@@ -2909,7 +2925,7 @@
         <v>0.8377</v>
       </c>
       <c r="B31" s="0">
-        <v>926.6409</v>
+        <v>925.3539</v>
       </c>
     </row>
     <row r="32">
@@ -2917,23 +2933,23 @@
         <v>0.855</v>
       </c>
       <c r="B32" s="0">
-        <v>926.6409</v>
+        <v>927.9279</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.868</v>
+        <v>0.869</v>
       </c>
       <c r="B33" s="0">
-        <v>930.5019</v>
+        <v>929.8584</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.8853</v>
+        <v>0.8858</v>
       </c>
       <c r="B34" s="0">
-        <v>930.5019</v>
+        <v>931.1454</v>
       </c>
     </row>
     <row r="35">
@@ -2941,7 +2957,7 @@
         <v>0.9015</v>
       </c>
       <c r="B35" s="0">
-        <v>931.7889</v>
+        <v>932.4324</v>
       </c>
     </row>
     <row r="36">
@@ -2994,10 +3010,10 @@
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.9946</v>
+        <v>0.9913</v>
       </c>
       <c r="B42" s="0">
-        <v>969.112</v>
+        <v>972.973</v>
       </c>
     </row>
     <row r="43"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 114 Activated Carbons From Winemaking/Data114_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 114 Activated Carbons From Winemaking/Data114_all_graphs_excel.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 BAG  0-1-0-1000 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 CS  0-1-0-1000 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 BAG  0&amp;1&amp;0&amp;1000 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 CS  0&amp;1&amp;0&amp;1000 " sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -160,12 +160,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 BAG  0-1-0-1000 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 BAG  0&amp;1&amp;0&amp;1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 BAG  0-1-0-1000 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 BAG  0&amp;1&amp;0&amp;1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -474,12 +474,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 CS  0-1-0-1000 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 CS  0&amp;1&amp;0&amp;1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 CS  0-1-0-1000 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 CS  0&amp;1&amp;0&amp;1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
